--- a/services/agent_production_planning/interactive_schedule_schedule.xlsx
+++ b/services/agent_production_planning/interactive_schedule_schedule.xlsx
@@ -505,13 +505,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1742438922</v>
+        <v>1742439236</v>
       </c>
       <c r="F2" t="n">
         <v>1742515200</v>
       </c>
       <c r="G2" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-03-20 10:48:42</t>
+          <t>2025-03-20 10:53:56</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -549,13 +549,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1742498922</v>
+        <v>1742499236</v>
       </c>
       <c r="F3" t="n">
         <v>1742601600</v>
       </c>
       <c r="G3" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-03-21 03:28:42</t>
+          <t>2025-03-21 03:33:56</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -593,13 +593,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1742558922</v>
+        <v>1742559236</v>
       </c>
       <c r="F4" t="n">
         <v>1742688000</v>
       </c>
       <c r="G4" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-03-21 20:08:42</t>
+          <t>2025-03-21 20:13:56</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -637,13 +637,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1742618922</v>
+        <v>1742619236</v>
       </c>
       <c r="F5" t="n">
         <v>1742774400</v>
       </c>
       <c r="G5" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-03-22 12:48:42</t>
+          <t>2025-03-22 12:53:56</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -681,13 +681,13 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1742678922</v>
+        <v>1742679236</v>
       </c>
       <c r="F6" t="n">
         <v>1742860800</v>
       </c>
       <c r="G6" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-03-23 05:28:42</t>
+          <t>2025-03-23 05:33:56</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -725,13 +725,13 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1742379422</v>
+        <v>1742379736</v>
       </c>
       <c r="F7" t="n">
         <v>1755388800</v>
       </c>
       <c r="G7" t="n">
-        <v>3613.7</v>
+        <v>3613.6</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-03-19 18:17:02</t>
+          <t>2025-03-19 18:22:16</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -769,13 +769,13 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1742396922</v>
+        <v>1742397236</v>
       </c>
       <c r="F8" t="n">
         <v>1755388800</v>
       </c>
       <c r="G8" t="n">
-        <v>3608.9</v>
+        <v>3608.8</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-03-19 23:08:42</t>
+          <t>2025-03-19 23:13:56</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -813,13 +813,13 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1742431922</v>
+        <v>1742432236</v>
       </c>
       <c r="F9" t="n">
         <v>1755388800</v>
       </c>
       <c r="G9" t="n">
-        <v>3599.1</v>
+        <v>3599</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-03-20 08:52:02</t>
+          <t>2025-03-20 08:57:16</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -857,13 +857,13 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1742395122</v>
+        <v>1742395436</v>
       </c>
       <c r="F10" t="n">
         <v>1755388800</v>
       </c>
       <c r="G10" t="n">
-        <v>3609.4</v>
+        <v>3609.3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-03-19 22:38:42</t>
+          <t>2025-03-19 22:43:56</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -901,13 +901,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1742401602</v>
+        <v>1742401916</v>
       </c>
       <c r="F11" t="n">
         <v>1755388800</v>
       </c>
       <c r="G11" t="n">
-        <v>3607.6</v>
+        <v>3607.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-03-20 00:26:42</t>
+          <t>2025-03-20 00:31:56</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -945,13 +945,13 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1742414562</v>
+        <v>1742414876</v>
       </c>
       <c r="F12" t="n">
         <v>1755388800</v>
       </c>
       <c r="G12" t="n">
-        <v>3604</v>
+        <v>3603.9</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-03-20 04:02:42</t>
+          <t>2025-03-20 04:07:56</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -989,13 +989,13 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1742427522</v>
+        <v>1742427836</v>
       </c>
       <c r="F13" t="n">
         <v>1755388800</v>
       </c>
       <c r="G13" t="n">
-        <v>3600.4</v>
+        <v>3600.3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-03-20 07:38:42</t>
+          <t>2025-03-20 07:43:56</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1033,13 +1033,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1742440482</v>
+        <v>1742440796</v>
       </c>
       <c r="F14" t="n">
         <v>1755388800</v>
       </c>
       <c r="G14" t="n">
-        <v>3596.8</v>
+        <v>3596.7</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-03-20 11:14:42</t>
+          <t>2025-03-20 11:19:56</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1077,13 +1077,13 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1742449122</v>
+        <v>1742449436</v>
       </c>
       <c r="F15" t="n">
         <v>1755388800</v>
       </c>
       <c r="G15" t="n">
-        <v>3594.4</v>
+        <v>3594.3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-03-20 13:38:42</t>
+          <t>2025-03-20 13:43:56</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1121,13 +1121,13 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1742380472</v>
+        <v>1742380786</v>
       </c>
       <c r="F16" t="n">
         <v>1755388800</v>
       </c>
       <c r="G16" t="n">
-        <v>3613.4</v>
+        <v>3613.3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-03-19 18:34:32</t>
+          <t>2025-03-19 18:39:46</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1165,13 +1165,13 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1742683647</v>
+        <v>1742683961</v>
       </c>
       <c r="F17" t="n">
         <v>1755388800</v>
       </c>
       <c r="G17" t="n">
-        <v>3529.2</v>
+        <v>3529.1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-03-23 06:47:27</t>
+          <t>2025-03-23 06:52:41</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1209,13 +1209,13 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1742688372</v>
+        <v>1742688686</v>
       </c>
       <c r="F18" t="n">
         <v>1755388800</v>
       </c>
       <c r="G18" t="n">
-        <v>3527.9</v>
+        <v>3527.8</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-03-23 08:06:12</t>
+          <t>2025-03-23 08:11:26</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1253,13 +1253,13 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1742693097</v>
+        <v>1742693411</v>
       </c>
       <c r="F19" t="n">
         <v>1755388800</v>
       </c>
       <c r="G19" t="n">
-        <v>3526.6</v>
+        <v>3526.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-03-23 09:24:57</t>
+          <t>2025-03-23 09:30:11</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1297,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1742697822</v>
+        <v>1742698136</v>
       </c>
       <c r="F20" t="n">
         <v>1755388800</v>
       </c>
       <c r="G20" t="n">
-        <v>3525.3</v>
+        <v>3525.2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-03-23 10:43:42</t>
+          <t>2025-03-23 10:48:56</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1341,13 +1341,13 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1742702547</v>
+        <v>1742702861</v>
       </c>
       <c r="F21" t="n">
         <v>1755388800</v>
       </c>
       <c r="G21" t="n">
-        <v>3524</v>
+        <v>3523.9</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-03-23 12:02:27</t>
+          <t>2025-03-23 12:07:41</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1385,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1742717547</v>
+        <v>1742717861</v>
       </c>
       <c r="F22" t="n">
         <v>1756252800</v>
       </c>
       <c r="G22" t="n">
-        <v>3759.8</v>
+        <v>3759.7</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-03-23 16:12:27</t>
+          <t>2025-03-23 16:17:41</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1429,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1742732547</v>
+        <v>1742732861</v>
       </c>
       <c r="F23" t="n">
         <v>1756252800</v>
       </c>
       <c r="G23" t="n">
-        <v>3755.6</v>
+        <v>3755.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-03-23 20:22:27</t>
+          <t>2025-03-23 20:27:41</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1473,13 +1473,13 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1742747547</v>
+        <v>1742747861</v>
       </c>
       <c r="F24" t="n">
         <v>1756252800</v>
       </c>
       <c r="G24" t="n">
-        <v>3751.5</v>
+        <v>3751.4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-03-24 00:32:27</t>
+          <t>2025-03-24 00:37:41</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1517,13 +1517,13 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1742762547</v>
+        <v>1742762861</v>
       </c>
       <c r="F25" t="n">
         <v>1756252800</v>
       </c>
       <c r="G25" t="n">
-        <v>3747.3</v>
+        <v>3747.2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-03-24 04:42:27</t>
+          <t>2025-03-24 04:47:41</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1561,13 +1561,13 @@
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>1742777547</v>
+        <v>1742777861</v>
       </c>
       <c r="F26" t="n">
         <v>1756252800</v>
       </c>
       <c r="G26" t="n">
-        <v>3743.1</v>
+        <v>3743</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-03-24 08:52:27</t>
+          <t>2025-03-24 08:57:41</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1605,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>1742792547</v>
+        <v>1742792861</v>
       </c>
       <c r="F27" t="n">
         <v>1756252800</v>
       </c>
       <c r="G27" t="n">
-        <v>3739</v>
+        <v>3738.9</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-03-24 13:02:27</t>
+          <t>2025-03-24 13:07:41</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1649,13 +1649,13 @@
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>1742380272</v>
+        <v>1742380586</v>
       </c>
       <c r="F28" t="n">
         <v>1755129600</v>
       </c>
       <c r="G28" t="n">
-        <v>3541.5</v>
+        <v>3541.4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-03-19 18:31:12</t>
+          <t>2025-03-19 18:36:26</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1693,13 +1693,13 @@
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>1742381622</v>
+        <v>1742381936</v>
       </c>
       <c r="F29" t="n">
         <v>1755129600</v>
       </c>
       <c r="G29" t="n">
-        <v>3541.1</v>
+        <v>3541</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-03-19 18:53:42</t>
+          <t>2025-03-19 18:58:56</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1737,13 +1737,13 @@
         <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>1742382972</v>
+        <v>1742383286</v>
       </c>
       <c r="F30" t="n">
         <v>1755129600</v>
       </c>
       <c r="G30" t="n">
-        <v>3540.7</v>
+        <v>3540.6</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-03-19 19:16:12</t>
+          <t>2025-03-19 19:21:26</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1781,13 +1781,13 @@
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1742591422</v>
+        <v>1742591736</v>
       </c>
       <c r="F31" t="n">
         <v>1755129600</v>
       </c>
       <c r="G31" t="n">
-        <v>3482.8</v>
+        <v>3482.7</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-03-22 05:10:22</t>
+          <t>2025-03-22 05:15:36</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1825,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>1742616922</v>
+        <v>1742617236</v>
       </c>
       <c r="F32" t="n">
         <v>1755129600</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-03-22 12:15:22</t>
+          <t>2025-03-22 12:20:36</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1869,13 +1869,13 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>1742629672</v>
+        <v>1742629986</v>
       </c>
       <c r="F33" t="n">
         <v>1755129600</v>
       </c>
       <c r="G33" t="n">
-        <v>3472.2</v>
+        <v>3472.1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-03-22 15:47:52</t>
+          <t>2025-03-22 15:53:06</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1913,13 +1913,13 @@
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>1742806137</v>
+        <v>1742806451</v>
       </c>
       <c r="F34" t="n">
         <v>1755561600</v>
       </c>
       <c r="G34" t="n">
-        <v>3543.2</v>
+        <v>3543.1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-03-24 16:48:57</t>
+          <t>2025-03-24 16:54:11</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1957,13 +1957,13 @@
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>1742819727</v>
+        <v>1742820041</v>
       </c>
       <c r="F35" t="n">
         <v>1755561600</v>
       </c>
       <c r="G35" t="n">
-        <v>3539.4</v>
+        <v>3539.3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-03-24 20:35:27</t>
+          <t>2025-03-24 20:40:41</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2001,13 +2001,13 @@
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>1742833317</v>
+        <v>1742833631</v>
       </c>
       <c r="F36" t="n">
         <v>1755561600</v>
       </c>
       <c r="G36" t="n">
-        <v>3535.6</v>
+        <v>3535.5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-03-25 00:21:57</t>
+          <t>2025-03-25 00:27:11</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
